--- a/Resources/Csvs/towers.xlsx
+++ b/Resources/Csvs/towers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ddir\gitcode\arkarrot\Resources\Csvs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86159\Documents\GitHub\arkarrot\Resources\Csvs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1506AFC1-7F3F-4771-B36A-78EB5A2BD322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3E5662-EDDE-4A69-A003-6D462E5BAD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6732" yWindow="2436" windowWidth="14088" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5250" yWindow="2660" windowWidth="14840" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="towers.csv" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>name</t>
   </si>
@@ -85,6 +85,20 @@
   </si>
   <si>
     <t>Star3</t>
+  </si>
+  <si>
+    <t>Shit1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Towers/Shit.plist</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shit2</t>
+  </si>
+  <si>
+    <t>Shit3</t>
   </si>
 </sst>
 </file>
@@ -741,9 +755,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -781,9 +795,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -816,9 +830,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -851,9 +882,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1027,21 +1075,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="2" max="2" width="38.77734375" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" customWidth="1"/>
-    <col min="11" max="11" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="11.36328125" customWidth="1"/>
+    <col min="2" max="2" width="38.81640625" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" customWidth="1"/>
+    <col min="9" max="9" width="16.54296875" customWidth="1"/>
+    <col min="10" max="10" width="17.36328125" customWidth="1"/>
+    <col min="11" max="11" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1259,7 +1307,7 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1287,10 +1335,116 @@
       </c>
       <c r="K7">
         <v>700</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.6</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>150</v>
+      </c>
+      <c r="I8">
+        <v>10000</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>15</v>
+      </c>
+      <c r="H9">
+        <v>200</v>
+      </c>
+      <c r="I9">
+        <v>10000</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.4</v>
+      </c>
+      <c r="G10">
+        <v>20</v>
+      </c>
+      <c r="H10">
+        <v>250</v>
+      </c>
+      <c r="I10">
+        <v>10000</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>900</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>